--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -324,12 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -337,6 +332,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,7 +624,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:G11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -646,290 +647,290 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="개요 " sheetId="3" r:id="rId1"/>
+    <sheet name="Player" sheetId="1" r:id="rId2"/>
+    <sheet name="Boss" sheetId="2" r:id="rId3"/>
+    <sheet name="Monster" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">PC 애니메이션 리스트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기본 동작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +60,6 @@
     <t>기본 공격 3번</t>
   </si>
   <si>
-    <t xml:space="preserve">애니메이션은 기본 60프레임 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Local_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +227,114 @@
   </si>
   <si>
     <t>재생 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Change_002 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 해제 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신 종료 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">디졸브 쉐이더와 연계하여 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격/피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSS 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerCharacter 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥은호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">초안작성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규프로젝트_애니메이션 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신명수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +366,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -286,7 +389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -309,6 +412,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -318,15 +480,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -337,8 +496,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,345 +810,941 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="M5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
+      <c r="H6" s="5"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="M8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="M9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="M10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="M11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="M12" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="M13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="M14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
+      <c r="H15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>50</v>
+      <c r="H16" s="5"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
+      <c r="H17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="M18" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
+  <mergeCells count="21">
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="M5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="M6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="M7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="M8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="M9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="M10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="M11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="M12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="M13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="M14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="M16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="M17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="M18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="M19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="M20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1467129-CF4C-4094-867E-426999DD49C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,13 +336,49 @@
   </si>
   <si>
     <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기획 담당자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 대기 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스폰 직후 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일반 공격 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 공격 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성혁님께 질문 할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 모션 ()초 공격 모션 ()초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -471,6 +508,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -480,7 +526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +557,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,7 +578,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -871,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -907,12 +965,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
@@ -927,7 +985,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -939,10 +997,10 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>54</v>
@@ -953,7 +1011,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -963,10 +1021,10 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>54</v>
@@ -977,7 +1035,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -989,10 +1047,10 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>54</v>
@@ -1005,7 +1063,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1015,10 +1073,10 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>54</v>
@@ -1029,7 +1087,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1039,10 +1097,10 @@
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>54</v>
@@ -1053,7 +1111,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,10 +1121,10 @@
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>54</v>
@@ -1077,7 +1135,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1087,10 +1145,10 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>54</v>
@@ -1101,7 +1159,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1111,10 +1169,10 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>54</v>
@@ -1125,7 +1183,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1135,10 +1193,10 @@
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>54</v>
@@ -1149,7 +1207,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1159,10 +1217,10 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>54</v>
@@ -1173,7 +1231,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1185,10 +1243,10 @@
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>54</v>
@@ -1201,7 +1259,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1211,10 +1269,10 @@
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>54</v>
@@ -1227,7 +1285,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1237,10 +1295,10 @@
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>54</v>
@@ -1253,7 +1311,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1263,10 +1321,10 @@
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>54</v>
@@ -1277,7 +1335,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1289,10 +1347,10 @@
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>54</v>
@@ -1305,7 +1363,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1315,10 +1373,10 @@
       <c r="D20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>58</v>
@@ -1337,6 +1395,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1346,11 +1409,6 @@
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E13:H13"/>
@@ -1366,11 +1424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1399,12 +1457,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
@@ -1419,14 +1477,14 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>68</v>
@@ -1437,14 +1495,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>68</v>
@@ -1455,14 +1513,14 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>68</v>
@@ -1473,14 +1531,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>68</v>
@@ -1491,14 +1549,14 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>68</v>
@@ -1509,14 +1567,14 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>68</v>
@@ -1527,14 +1585,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>68</v>
@@ -1545,14 +1603,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>68</v>
@@ -1563,14 +1621,14 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
@@ -1581,14 +1639,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>68</v>
@@ -1599,14 +1657,14 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>68</v>
@@ -1617,14 +1675,14 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>68</v>
@@ -1635,14 +1693,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>68</v>
@@ -1653,14 +1711,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>68</v>
@@ -1671,14 +1729,14 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>68</v>
@@ -1689,14 +1747,14 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>68</v>
@@ -1713,6 +1771,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -1722,14 +1788,6 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1737,13 +1795,352 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="5"/>
+      <c r="M5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="5"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="5"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="5"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="5"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="5"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="19"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="5"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="8"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="19"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="M5:M20"/>
+    <mergeCell ref="N5:N11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1467129-CF4C-4094-867E-426999DD49C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
     <sheet name="Player" sheetId="1" r:id="rId2"/>
     <sheet name="Boss" sheetId="2" r:id="rId3"/>
-    <sheet name="Monster" sheetId="4" r:id="rId4"/>
+    <sheet name="Monster1" sheetId="4" r:id="rId4"/>
+    <sheet name="Monster2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,13 +372,149 @@
   </si>
   <si>
     <t>전조 모션 ()초 공격 모션 ()초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Atk1Start_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Atk1Sign_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Atk2Sign_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Atk2Start_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림캐쳐 내용 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강동민 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 대기모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 이동 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 죽는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격당함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 0상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성됬을때와 공격후 딜레이 시간에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 추적할때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격전 취하는 자세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격시 나오는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격전 취하는 자세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망하는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,6 +699,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,14 +729,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,11 +1012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -911,9 +1056,15 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -929,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -965,12 +1116,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
@@ -985,7 +1136,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -997,10 +1148,10 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>54</v>
@@ -1011,7 +1162,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1021,10 +1172,10 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>54</v>
@@ -1035,7 +1186,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="17" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1047,10 +1198,10 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>54</v>
@@ -1063,7 +1214,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1073,10 +1224,10 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>54</v>
@@ -1087,7 +1238,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1097,10 +1248,10 @@
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>54</v>
@@ -1111,7 +1262,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,10 +1272,10 @@
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>54</v>
@@ -1135,7 +1286,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1145,10 +1296,10 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>54</v>
@@ -1159,7 +1310,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1169,10 +1320,10 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>54</v>
@@ -1183,7 +1334,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1193,10 +1344,10 @@
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>54</v>
@@ -1207,7 +1358,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1217,10 +1368,10 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>54</v>
@@ -1231,7 +1382,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1243,10 +1394,10 @@
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>54</v>
@@ -1259,7 +1410,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1269,10 +1420,10 @@
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>54</v>
@@ -1285,7 +1436,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1295,10 +1446,10 @@
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>54</v>
@@ -1311,7 +1462,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1321,10 +1472,10 @@
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>54</v>
@@ -1335,7 +1486,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1347,10 +1498,10 @@
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>54</v>
@@ -1363,7 +1514,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1373,10 +1524,10 @@
       <c r="D20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>58</v>
@@ -1395,11 +1546,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1416,6 +1562,11 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1424,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1457,12 +1608,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
@@ -1481,10 +1632,10 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>68</v>
@@ -1499,10 +1650,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>68</v>
@@ -1517,10 +1668,10 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>68</v>
@@ -1535,10 +1686,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>68</v>
@@ -1553,10 +1704,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>68</v>
@@ -1571,10 +1722,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>68</v>
@@ -1589,10 +1740,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>68</v>
@@ -1607,10 +1758,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>68</v>
@@ -1625,10 +1776,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
@@ -1643,10 +1794,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>68</v>
@@ -1661,10 +1812,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>68</v>
@@ -1679,10 +1830,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>68</v>
@@ -1697,10 +1848,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>68</v>
@@ -1715,10 +1866,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>68</v>
@@ -1733,10 +1884,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>68</v>
@@ -1751,10 +1902,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>68</v>
@@ -1771,14 +1922,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -1788,6 +1931,14 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1795,11 +1946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1830,12 +1981,12 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="7" t="s">
         <v>52</v>
       </c>
@@ -1853,7 +2004,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="5"/>
@@ -1863,17 +2014,17 @@
       <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="22" t="s">
         <v>73</v>
       </c>
       <c r="P5" t="s">
@@ -1881,237 +2032,237 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="5"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="5"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="5"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="5"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="19"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="5"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="19"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="5"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="19"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="5"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="19"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="5"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="19"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="5"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="5"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="19"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
@@ -2120,6 +2271,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E9:H9"/>
     <mergeCell ref="M5:M20"/>
     <mergeCell ref="N5:N11"/>
     <mergeCell ref="E16:H16"/>
@@ -2127,19 +2289,377 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
-    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11"/>
+      <c r="M5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="11"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="11"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="11"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="11"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="11"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="8"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
+    <mergeCell ref="M5:M18"/>
+    <mergeCell ref="N5:N9"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -708,9 +708,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -727,6 +724,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,12 +1116,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
@@ -1136,7 +1136,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1148,10 +1148,10 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>54</v>
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1172,10 +1172,10 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>54</v>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1198,10 +1198,10 @@
       <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>54</v>
@@ -1214,7 +1214,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1224,10 +1224,10 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>54</v>
@@ -1238,7 +1238,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -1248,10 +1248,10 @@
       <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>54</v>
@@ -1262,7 +1262,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1272,10 +1272,10 @@
       <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>54</v>
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1296,10 +1296,10 @@
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>54</v>
@@ -1310,7 +1310,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1320,10 +1320,10 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>54</v>
@@ -1334,7 +1334,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1344,10 +1344,10 @@
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>54</v>
@@ -1358,7 +1358,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1368,10 +1368,10 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>54</v>
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1394,10 +1394,10 @@
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>54</v>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1420,10 +1420,10 @@
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>54</v>
@@ -1436,7 +1436,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>54</v>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="3" t="s">
         <v>45</v>
       </c>
@@ -1472,10 +1472,10 @@
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>54</v>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1498,10 +1498,10 @@
       <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>54</v>
@@ -1514,7 +1514,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
@@ -1524,10 +1524,10 @@
       <c r="D20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>58</v>
@@ -1546,6 +1546,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1562,11 +1567,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,12 +1608,12 @@
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="6" t="s">
         <v>52</v>
       </c>
@@ -1632,10 +1632,10 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>68</v>
@@ -1650,10 +1650,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>68</v>
@@ -1668,10 +1668,10 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>68</v>
@@ -1686,10 +1686,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>68</v>
@@ -1704,10 +1704,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>68</v>
@@ -1722,10 +1722,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>68</v>
@@ -1740,10 +1740,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>68</v>
@@ -1758,10 +1758,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>68</v>
@@ -1776,10 +1776,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>68</v>
@@ -1794,10 +1794,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>68</v>
@@ -1812,10 +1812,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>68</v>
@@ -1830,10 +1830,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>68</v>
@@ -1848,10 +1848,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>68</v>
@@ -1866,10 +1866,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>68</v>
@@ -1884,10 +1884,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>68</v>
@@ -1902,10 +1902,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>68</v>
@@ -1922,6 +1922,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -1931,14 +1939,6 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1981,12 +1981,12 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="7" t="s">
         <v>52</v>
       </c>
@@ -2004,7 +2004,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="5"/>
@@ -2014,14 +2014,14 @@
       <c r="D5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="22" t="s">
@@ -2032,101 +2032,101 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="5"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="5"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="5"/>
-      <c r="M10" s="18"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="5"/>
-      <c r="M11" s="18"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2134,14 +2134,14 @@
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="5"/>
-      <c r="M12" s="18"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2149,14 +2149,14 @@
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="5"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2164,14 +2164,14 @@
       <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="5"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2179,14 +2179,14 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="5"/>
-      <c r="M15" s="18"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2194,14 +2194,14 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="5"/>
-      <c r="M16" s="18"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2209,14 +2209,14 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="5"/>
-      <c r="M17" s="18"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -2224,14 +2224,14 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="5"/>
-      <c r="M18" s="18"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -2239,14 +2239,14 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="5"/>
-      <c r="M19" s="18"/>
+      <c r="M19" s="17"/>
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2254,14 +2254,14 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="K20" s="8"/>
-      <c r="M20" s="19"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -2271,17 +2271,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E9:H9"/>
     <mergeCell ref="M5:M20"/>
     <mergeCell ref="N5:N11"/>
     <mergeCell ref="E16:H16"/>
@@ -2291,6 +2280,17 @@
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2301,7 +2301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2333,12 +2333,12 @@
       <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="12" t="s">
         <v>52</v>
       </c>
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2377,7 +2377,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="11"/>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>78</v>
       </c>
       <c r="N5" s="22" t="s">
@@ -2385,7 +2385,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="11" t="s">
         <v>91</v>
       </c>
@@ -2404,11 +2404,11 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="11"/>
-      <c r="M6" s="18"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="11" t="s">
         <v>93</v>
       </c>
@@ -2427,11 +2427,11 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="11"/>
-      <c r="M7" s="18"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="11" t="s">
         <v>92</v>
       </c>
@@ -2450,11 +2450,11 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="11"/>
-      <c r="M8" s="18"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="11" t="s">
         <v>94</v>
       </c>
@@ -2473,11 +2473,11 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="11"/>
-      <c r="M9" s="18"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="11" t="s">
         <v>95</v>
       </c>
@@ -2496,11 +2496,11 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="11"/>
-      <c r="M10" s="18"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="11" t="s">
         <v>96</v>
       </c>
@@ -2519,11 +2519,11 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="11"/>
-      <c r="M11" s="18"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="11" t="s">
         <v>97</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="11"/>
-      <c r="M12" s="18"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -2550,14 +2550,14 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="11"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -2565,14 +2565,14 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="11"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -2580,14 +2580,14 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="11"/>
-      <c r="M15" s="18"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -2595,14 +2595,14 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="11"/>
-      <c r="M16" s="18"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -2610,14 +2610,14 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="11"/>
-      <c r="M17" s="18"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -2625,14 +2625,14 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
       <c r="K18" s="8"/>
-      <c r="M18" s="19"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -2642,6 +2642,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="M5:M18"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
@@ -2653,13 +2660,6 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="M5:M18"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8500CB60-40AF-4BD6-A862-B004C21D3797}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="159">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,38 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dream_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Atk1Start_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Atk1Sign_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Atk2Sign_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Atk2Start_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dream_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>19.07.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -652,13 +619,45 @@
   </si>
   <si>
     <t xml:space="preserve">변신 해제 시 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack1_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -843,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +901,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,6 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,15 +940,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1220,10 +1225,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1265,13 +1270,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1288,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -1324,12 +1329,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1344,7 +1349,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1356,10 +1361,10 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>51</v>
@@ -1370,7 +1375,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1380,10 +1385,10 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>51</v>
@@ -1394,7 +1399,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1406,12 +1411,12 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="E7" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>51</v>
@@ -1422,9 +1427,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1432,25 +1437,25 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1460,25 +1465,25 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1488,25 +1493,25 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="E10" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1516,25 +1521,25 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="E11" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,25 +1549,25 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="E12" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1572,25 +1577,25 @@
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1600,25 +1605,25 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1630,12 +1635,12 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>51</v>
@@ -1648,9 +1653,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -1658,12 +1663,12 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>51</v>
@@ -1676,7 +1681,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1686,12 +1691,12 @@
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>51</v>
@@ -1704,7 +1709,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1714,12 +1719,12 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>51</v>
@@ -1730,7 +1735,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1742,12 +1747,12 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -1760,7 +1765,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1770,12 +1775,12 @@
       <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="E20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>55</v>
@@ -1794,11 +1799,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1815,11 +1825,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1861,12 +1866,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1885,10 +1890,10 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>65</v>
@@ -1903,10 +1908,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>65</v>
@@ -1921,10 +1926,10 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>65</v>
@@ -1939,10 +1944,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>65</v>
@@ -1957,10 +1962,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>65</v>
@@ -1975,10 +1980,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>65</v>
@@ -1993,10 +1998,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>65</v>
@@ -2011,10 +2016,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>65</v>
@@ -2029,10 +2034,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>65</v>
@@ -2047,10 +2052,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>65</v>
@@ -2065,10 +2070,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>65</v>
@@ -2083,10 +2088,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>65</v>
@@ -2101,10 +2106,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>65</v>
@@ -2119,10 +2124,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>65</v>
@@ -2137,10 +2142,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>65</v>
@@ -2155,10 +2160,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>65</v>
@@ -2175,6 +2180,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2184,14 +2197,6 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2199,11 +2204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2234,17 +2239,17 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>50</v>
@@ -2260,11 +2265,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>117</v>
+      <c r="B5" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>80</v>
@@ -2272,211 +2277,211 @@
       <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="E5" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="1"/>
       <c r="J5" s="17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="N5" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" s="20" t="s">
+      <c r="N5" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="31" t="s">
-        <v>124</v>
+      <c r="A6" s="25"/>
+      <c r="B6" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+        <v>118</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L6" s="15"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="21"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="31" t="s">
-        <v>118</v>
+      <c r="A7" s="25"/>
+      <c r="B7" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="E7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="31" t="s">
-        <v>119</v>
+      <c r="A8" s="25"/>
+      <c r="B8" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="N8" s="30"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="31" t="s">
-        <v>120</v>
+      <c r="A9" s="25"/>
+      <c r="B9" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L9" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="15" t="s">
-        <v>139</v>
-      </c>
       <c r="C10" s="15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+        <v>135</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L10" s="15"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+        <v>137</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L11" s="15"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="A12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2485,12 +2490,12 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2513,11 +2518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2525,17 +2530,17 @@
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>58</v>
       </c>
@@ -2548,324 +2553,352 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="11"/>
+      <c r="N5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="11"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="11"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="30"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="11"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
-      <c r="M5" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="25" t="s">
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="11"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="11"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="11"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="25"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="D12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="11"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J12" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="11"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="11"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J13" s="19"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="11"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="11"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J14" s="19"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J15" s="19"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="11"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J16" s="19"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="11"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="11"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J17" s="19"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="11"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="8"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J18" s="19"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="8"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="M5:M18"/>
-    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="N5:N18"/>
+    <mergeCell ref="O5:O9"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
@@ -2875,6 +2908,11 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,280 +377,288 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스킬1 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 죽는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격당함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 0상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Attack_002</t>
+  </si>
+  <si>
+    <t>MM01_Attack_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 준비 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 중인 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 이동 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전방으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 전조 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 공격 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 공격을 통일해서 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대기상태에서 출력하는 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 루프여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">윤영조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 맥 몬스터의 리깅 데이터의 경우 &lt; MM01_Rig &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_ATTACK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">측면으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루트 모션으로 인한 8방향 제작 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전방 이동보다 느리게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매우 느리게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">후방으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타 공격 앞으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1타 공격 이동 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3타 공격 앞으로 이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터에게 피격 시 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 해제 시 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>드림 캐쳐 이동 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬1 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 피격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 죽는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격당함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 0상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성됬을때와 공격후 딜레이 시간에 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저를 추적할때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격전 취하는 자세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조후 공격하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격시 나오는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격전 취하는 자세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Attack_002</t>
-  </si>
-  <si>
-    <t>MM01_Attack_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 준비 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 중인 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맥 이동 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전방으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 전조 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 공격 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 공격을 통일해서 사용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">대기상태에서 출력하는 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 루프여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">윤영조 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 맥 몬스터의 리깅 데이터의 경우 &lt; MM01_Rig &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_ATTACK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">측면으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">루트 모션으로 인한 8방향 제작 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">전방 이동보다 느리게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">매우 느리게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">후방으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2타 공격 앞으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1타 공격 이동 없음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3타 공격 앞으로 이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">몬스터에게 피격 시 출력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변신 해제 시 출력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack1_002</t>
+    <t>공격 전 취하는 자세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 나오는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성됬을 때와 공격 후 딜레이 시간에 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 추적할 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 전 취하는 자세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Idle_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -792,15 +800,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -842,7 +841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,9 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -909,8 +905,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -930,19 +932,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,12 +1325,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1345,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1361,10 +1357,10 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>51</v>
@@ -1375,7 +1371,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1385,10 +1381,10 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>51</v>
@@ -1399,7 +1395,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1411,12 +1407,12 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>51</v>
@@ -1427,9 +1423,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1437,25 +1433,25 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1465,25 +1461,25 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>143</v>
+      <c r="K9" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1493,25 +1489,25 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,25 +1517,25 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>143</v>
+      <c r="K11" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1549,25 +1545,25 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="E12" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>143</v>
+      <c r="K12" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1577,25 +1573,25 @@
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>143</v>
+      <c r="K13" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1605,25 +1601,25 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>143</v>
+      <c r="K14" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1635,12 +1631,12 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>51</v>
@@ -1653,9 +1649,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -1663,12 +1659,12 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>51</v>
@@ -1681,7 +1677,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1691,12 +1687,12 @@
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>51</v>
@@ -1709,7 +1705,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1719,12 +1715,12 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>51</v>
@@ -1735,7 +1731,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1747,12 +1743,12 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -1765,7 +1761,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1775,12 +1771,12 @@
       <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>55</v>
@@ -1799,16 +1795,11 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1825,6 +1816,11 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,12 +1862,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1890,10 +1886,10 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>65</v>
@@ -1908,10 +1904,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>65</v>
@@ -1926,10 +1922,10 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>65</v>
@@ -1944,10 +1940,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>65</v>
@@ -1962,10 +1958,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>65</v>
@@ -1980,10 +1976,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>65</v>
@@ -1998,10 +1994,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>65</v>
@@ -2016,10 +2012,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>65</v>
@@ -2034,10 +2030,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>65</v>
@@ -2052,10 +2048,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>65</v>
@@ -2070,10 +2066,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>65</v>
@@ -2088,10 +2084,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>65</v>
@@ -2106,10 +2102,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>65</v>
@@ -2124,10 +2120,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>65</v>
@@ -2142,10 +2138,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>65</v>
@@ -2160,10 +2156,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>65</v>
@@ -2180,14 +2176,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2197,6 +2185,14 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2208,7 +2204,7 @@
   <dimension ref="A2:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2239,17 +2235,17 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>125</v>
+      <c r="J4" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>50</v>
@@ -2265,11 +2261,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>109</v>
+      <c r="B5" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>80</v>
@@ -2277,211 +2273,209 @@
       <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="N5" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="24" t="s">
+      <c r="N5" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="25"/>
+      <c r="L6" s="14"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="22" t="s">
-        <v>110</v>
+      <c r="A7" s="26"/>
+      <c r="B7" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
+      <c r="E7" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="C11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="25"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="30"/>
-      <c r="O8" s="25"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="L11" s="14"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2490,19 +2484,17 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A5:A11"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="O5:O9"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E7:H7"/>
@@ -2521,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:H17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2530,6 +2522,7 @@
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
@@ -2537,7 +2530,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2553,17 +2546,17 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>125</v>
+      <c r="J4" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>50</v>
@@ -2571,348 +2564,230 @@
       <c r="L4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="19" t="s">
-        <v>126</v>
+      <c r="J5" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="11"/>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="30" t="s">
+      <c r="O5" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+        <v>151</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="19" t="s">
-        <v>126</v>
+      <c r="J6" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="19" t="s">
-        <v>127</v>
+      <c r="J7" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="11"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="11" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="19" t="s">
-        <v>127</v>
+      <c r="J8" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="19" t="s">
-        <v>127</v>
+      <c r="J9" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="19" t="s">
-        <v>127</v>
+      <c r="J10" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="11"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="19" t="s">
-        <v>127</v>
+      <c r="J11" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="11"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="19" t="s">
-        <v>127</v>
+      <c r="J12" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="11"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="11"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="11"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="11"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="11"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="11"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="8"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="N5:N18"/>
-    <mergeCell ref="O5:O9"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
+  <mergeCells count="10">
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="168">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,22 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬1 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드림 캐쳐 피격 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,26 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격당함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 0상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MM01_Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,50 +558,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DM_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM_Attack1_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드림 캐쳐 이동 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 전 취하는 자세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 나오는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성됬을 때와 공격 후 딜레이 시간에 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유저를 추적할 때 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 전 취하는 자세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전조 후 공격하는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,7 +578,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DM01_Idle_001</t>
+    <t>DM01_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack1_003</t>
+  </si>
+  <si>
+    <t>DM01_Attack2_003</t>
+  </si>
+  <si>
+    <t>스킬2 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성됬을 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,12 +937,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,6 +956,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1325,12 +1354,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1408,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -1425,7 +1454,7 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1434,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -1444,7 +1473,7 @@
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>74</v>
@@ -1462,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1472,7 +1501,7 @@
         <v>51</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>74</v>
@@ -1490,7 +1519,7 @@
         <v>25</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -1500,7 +1529,7 @@
         <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>74</v>
@@ -1518,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -1528,7 +1557,7 @@
         <v>51</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>74</v>
@@ -1546,7 +1575,7 @@
         <v>29</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -1556,7 +1585,7 @@
         <v>51</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>74</v>
@@ -1574,7 +1603,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -1584,7 +1613,7 @@
         <v>51</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>74</v>
@@ -1602,7 +1631,7 @@
         <v>33</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -1612,7 +1641,7 @@
         <v>51</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>74</v>
@@ -1632,7 +1661,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -1651,7 +1680,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -1660,7 +1689,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -1688,7 +1717,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -1716,7 +1745,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -1772,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -1795,11 +1824,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1816,11 +1850,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,12 +1891,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -2176,6 +2205,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2185,14 +2222,6 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,7 +2233,7 @@
   <dimension ref="A2:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E9" sqref="E9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2235,17 +2264,17 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>50</v>
@@ -2265,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>80</v>
@@ -2274,21 +2303,21 @@
         <v>81</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="10" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>70</v>
@@ -2297,23 +2326,23 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="21" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>65</v>
@@ -2325,29 +2354,29 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
@@ -2355,29 +2384,29 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
@@ -2385,29 +2414,29 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
       <c r="B9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
@@ -2415,20 +2444,20 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+        <v>119</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16" t="s">
@@ -2439,20 +2468,20 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="27"/>
       <c r="B11" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+        <v>121</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
@@ -2484,12 +2513,12 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2511,17 +2540,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O20"/>
+  <dimension ref="A2:O17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:L10"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="8" max="8" width="10.875" customWidth="1"/>
     <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
@@ -2530,7 +2559,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2546,17 +2575,17 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>50</v>
@@ -2576,25 +2605,27 @@
         <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="N5" s="10" t="s">
         <v>75</v>
@@ -2606,188 +2637,256 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K7" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
       <c r="B8" s="11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K8" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
-      <c r="B9" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>97</v>
+      <c r="B9" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
       <c r="B11" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K11" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>100</v>
+      <c r="A12" s="26"/>
+      <c r="B12" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
+  <mergeCells count="12">
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="175">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,14 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MM01_Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맥 이동 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">이동 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 맥 몬스터의 리깅 데이터의 경우 &lt; MM01_Rig &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MM01_Hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피격시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MM01_die</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -507,10 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사망시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC_ATTACK_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,85 +586,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack1_003</t>
+  </si>
+  <si>
+    <t>DM01_Attack2_003</t>
+  </si>
+  <si>
+    <t>스킬2 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성됬을 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동 전체를 프로그래밍 상에서 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MM01_Move_001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 이후 후방으로 이동 하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동하는  모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 전방 이동 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 후방 이동 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DM01_Idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack1_003</t>
-  </si>
-  <si>
-    <t>DM01_Attack2_003</t>
-  </si>
-  <si>
-    <t>스킬2 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 준비 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성됬을 때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최다빈</t>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 몬스터의 리깅 데이터의 경우 &lt; DM01_Rig &gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +720,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +748,15 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -867,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +980,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,9 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -969,6 +1009,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,12 +1400,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1374,7 +1420,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="30" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1386,10 +1432,10 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>51</v>
@@ -1400,7 +1446,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1410,10 +1456,10 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>51</v>
@@ -1424,7 +1470,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1436,12 +1482,12 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="E7" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>51</v>
@@ -1452,9 +1498,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1462,25 +1508,25 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1490,25 +1536,25 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1518,25 +1564,25 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1546,25 +1592,25 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="E11" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1574,25 +1620,25 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1602,25 +1648,25 @@
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="E13" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1630,25 +1676,25 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1660,12 +1706,12 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>51</v>
@@ -1678,9 +1724,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -1688,12 +1734,12 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>51</v>
@@ -1706,7 +1752,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1716,12 +1762,12 @@
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>51</v>
@@ -1734,7 +1780,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1744,12 +1790,12 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="E18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>51</v>
@@ -1760,7 +1806,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1772,12 +1818,12 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -1790,7 +1836,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1800,12 +1846,12 @@
       <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>55</v>
@@ -1824,16 +1870,11 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1850,6 +1891,11 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1891,12 +1937,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1915,10 +1961,10 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>65</v>
@@ -1933,10 +1979,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>65</v>
@@ -1951,10 +1997,10 @@
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>65</v>
@@ -1969,10 +2015,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>65</v>
@@ -1987,10 +2033,10 @@
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>65</v>
@@ -2005,10 +2051,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>65</v>
@@ -2023,10 +2069,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>65</v>
@@ -2041,10 +2087,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>65</v>
@@ -2059,10 +2105,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>65</v>
@@ -2077,10 +2123,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>65</v>
@@ -2095,10 +2141,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>65</v>
@@ -2113,10 +2159,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>65</v>
@@ -2131,10 +2177,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>65</v>
@@ -2149,10 +2195,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>65</v>
@@ -2167,10 +2213,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>65</v>
@@ -2185,10 +2231,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>65</v>
@@ -2205,14 +2251,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2222,6 +2260,14 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2230,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O16"/>
+  <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2241,7 +2287,7 @@
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2264,17 +2310,17 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>50</v>
@@ -2290,7 +2336,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -2302,248 +2348,265 @@
       <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="E5" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
+      <c r="E6" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
+      <c r="L6" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="A7" s="28"/>
+      <c r="B7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>107</v>
+      <c r="L8" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>116</v>
+      <c r="A10" s="28"/>
+      <c r="B10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
+        <v>82</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="K10" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+        <v>115</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
         <v>65</v>
       </c>
       <c r="L11" s="14"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="14"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:A11"/>
+  <mergeCells count="10">
+    <mergeCell ref="A5:A12"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E12:H12"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2559,7 +2622,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2575,17 +2638,17 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>50</v>
@@ -2601,30 +2664,30 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="E5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L5" s="11"/>
       <c r="N5" s="10" t="s">
@@ -2635,251 +2698,256 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+        <v>148</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+        <v>149</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+        <v>151</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="11" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+        <v>152</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+        <v>153</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="13"/>
       <c r="J13" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="D14" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="13"/>
       <c r="J14" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>76</v>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -2887,6 +2955,11 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="191">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -713,6 +713,68 @@
   </si>
   <si>
     <t>드림 캐쳐 몬스터의 리깅 데이터의 경우 &lt; DM01_Rig &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1 출력 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착지 후 보스를 공격 할 수 있는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 착지 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 진행 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 중인 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터가 무기(토끼 인형)에 올라타는 형태 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Attack_002</t>
+  </si>
+  <si>
+    <t>BOSS_Attack_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전조 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진행 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">종료 동작 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,27 +1042,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,12 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1400,12 +1465,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1420,7 +1485,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1432,10 +1497,10 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>51</v>
@@ -1446,7 +1511,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1456,10 +1521,10 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>51</v>
@@ -1470,7 +1535,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1482,12 +1547,12 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>51</v>
@@ -1498,7 +1563,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>119</v>
       </c>
@@ -1508,12 +1573,12 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>51</v>
@@ -1526,7 +1591,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1536,12 +1601,12 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>51</v>
@@ -1554,7 +1619,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1564,12 +1629,12 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>51</v>
@@ -1582,7 +1647,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,12 +1657,12 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>51</v>
@@ -1610,7 +1675,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1620,12 +1685,12 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>51</v>
@@ -1638,7 +1703,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1648,12 +1713,12 @@
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>51</v>
@@ -1666,7 +1731,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1676,12 +1741,12 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>51</v>
@@ -1694,7 +1759,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1706,12 +1771,12 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>51</v>
@@ -1724,7 +1789,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3" t="s">
         <v>118</v>
       </c>
@@ -1734,12 +1799,12 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>51</v>
@@ -1752,7 +1817,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1762,12 +1827,12 @@
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>51</v>
@@ -1780,7 +1845,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1790,12 +1855,12 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>51</v>
@@ -1806,7 +1871,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1818,12 +1883,12 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -1836,7 +1901,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1846,12 +1911,12 @@
       <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>55</v>
@@ -1875,6 +1940,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1891,11 +1961,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1916,6 +1981,8 @@
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1937,12 +2004,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1957,68 +2024,104 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="1"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="M5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="1"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="M6" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="1"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="M7" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>65</v>
@@ -2029,14 +2132,14 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>65</v>
@@ -2047,14 +2150,14 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>65</v>
@@ -2065,14 +2168,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>65</v>
@@ -2083,14 +2186,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>65</v>
@@ -2101,14 +2204,14 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>65</v>
@@ -2119,14 +2222,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>65</v>
@@ -2137,14 +2240,14 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>65</v>
@@ -2155,14 +2258,14 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>65</v>
@@ -2173,14 +2276,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>65</v>
@@ -2191,14 +2294,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>65</v>
@@ -2209,14 +2312,14 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>65</v>
@@ -2227,14 +2330,14 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>65</v>
@@ -2250,7 +2353,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2260,14 +2372,6 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,12 +2414,12 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
@@ -2336,7 +2440,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -2348,12 +2452,12 @@
       <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
         <v>108</v>
@@ -2370,7 +2474,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="21" t="s">
         <v>164</v>
       </c>
@@ -2380,12 +2484,12 @@
       <c r="D6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
         <v>108</v>
@@ -2396,11 +2500,11 @@
       <c r="L6" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8" t="s">
         <v>163</v>
       </c>
@@ -2410,12 +2514,12 @@
       <c r="D7" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2424,7 +2528,7 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="21" t="s">
         <v>94</v>
       </c>
@@ -2434,12 +2538,12 @@
       <c r="D8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
         <v>109</v>
@@ -2454,7 +2558,7 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="21" t="s">
         <v>95</v>
       </c>
@@ -2464,12 +2568,12 @@
       <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
         <v>108</v>
@@ -2484,7 +2588,7 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="21" t="s">
         <v>96</v>
       </c>
@@ -2494,12 +2598,12 @@
       <c r="D10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
         <v>109</v>
@@ -2514,7 +2618,7 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="14" t="s">
         <v>112</v>
       </c>
@@ -2524,12 +2628,12 @@
       <c r="D11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
@@ -2538,7 +2642,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="14" t="s">
         <v>114</v>
       </c>
@@ -2548,12 +2652,12 @@
       <c r="D12" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
@@ -2605,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2638,12 +2742,12 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
@@ -2664,7 +2768,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2676,12 +2780,12 @@
       <c r="D5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
         <v>108</v>
@@ -2698,7 +2802,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="11" t="s">
         <v>135</v>
       </c>
@@ -2708,12 +2812,12 @@
       <c r="D6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
         <v>108</v>
@@ -2724,7 +2828,7 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="11" t="s">
         <v>136</v>
       </c>
@@ -2734,12 +2838,12 @@
       <c r="D7" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
         <v>109</v>
@@ -2750,7 +2854,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="11" t="s">
         <v>137</v>
       </c>
@@ -2760,12 +2864,12 @@
       <c r="D8" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
         <v>109</v>
@@ -2776,7 +2880,7 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="23" t="s">
         <v>145</v>
       </c>
@@ -2786,12 +2890,12 @@
       <c r="D9" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
         <v>109</v>
@@ -2802,7 +2906,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="11" t="s">
         <v>138</v>
       </c>
@@ -2812,12 +2916,12 @@
       <c r="D10" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
         <v>109</v>
@@ -2828,7 +2932,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="11" t="s">
         <v>139</v>
       </c>
@@ -2838,12 +2942,12 @@
       <c r="D11" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
         <v>109</v>
@@ -2854,7 +2958,7 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="23" t="s">
         <v>146</v>
       </c>
@@ -2864,12 +2968,12 @@
       <c r="D12" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
         <v>109</v>
@@ -2880,7 +2984,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="11" t="s">
         <v>140</v>
       </c>
@@ -2890,12 +2994,12 @@
       <c r="D13" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="13"/>
       <c r="J13" s="18" t="s">
         <v>109</v>
@@ -2906,7 +3010,7 @@
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="11" t="s">
         <v>141</v>
       </c>
@@ -2916,12 +3020,12 @@
       <c r="D14" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="13"/>
       <c r="J14" s="18" t="s">
         <v>109</v>
@@ -2942,12 +3046,17 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="26" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -2955,11 +3064,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="193">
   <si>
     <t>PC_IDLE_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,14 @@
   </si>
   <si>
     <t xml:space="preserve">종료 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,6 +1059,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,9 +1081,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1364,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="C34:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1430,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M23"/>
+  <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1444,15 +1455,15 @@
     <col min="9" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
@@ -1465,12 +1476,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1483,9 +1494,12 @@
       <c r="M4" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="N4" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1497,10 +1511,10 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>51</v>
@@ -1509,9 +1523,12 @@
       <c r="M5" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="N5" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="35"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1521,21 +1538,18 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="M6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1547,23 +1561,20 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="M7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
       <c r="B8" s="3" t="s">
         <v>119</v>
       </c>
@@ -1573,12 +1584,12 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>51</v>
@@ -1586,12 +1597,9 @@
       <c r="K8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1601,12 +1609,12 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>51</v>
@@ -1614,12 +1622,9 @@
       <c r="K9" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1629,12 +1634,12 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>51</v>
@@ -1642,12 +1647,9 @@
       <c r="K10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1657,12 +1659,12 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>51</v>
@@ -1670,12 +1672,9 @@
       <c r="K11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1685,12 +1684,12 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>51</v>
@@ -1698,12 +1697,9 @@
       <c r="K12" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1713,12 +1709,12 @@
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>51</v>
@@ -1726,12 +1722,9 @@
       <c r="K13" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1741,12 +1734,12 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>51</v>
@@ -1754,12 +1747,9 @@
       <c r="K14" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1771,12 +1761,12 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>51</v>
@@ -1784,12 +1774,9 @@
       <c r="K15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
       <c r="B16" s="3" t="s">
         <v>118</v>
       </c>
@@ -1799,12 +1786,12 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>51</v>
@@ -1812,12 +1799,9 @@
       <c r="K16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1827,12 +1811,12 @@
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>51</v>
@@ -1840,12 +1824,9 @@
       <c r="K17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1855,23 +1836,20 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="M18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1883,12 +1861,12 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -1896,12 +1874,9 @@
       <c r="K19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1911,12 +1886,12 @@
       <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>55</v>
@@ -1924,27 +1899,19 @@
       <c r="K20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1961,6 +1928,11 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:H16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1984,14 +1956,15 @@
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
@@ -2004,12 +1977,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -2022,9 +1995,12 @@
       <c r="M4" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="N4" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="4" t="s">
         <v>185</v>
       </c>
@@ -2034,12 +2010,12 @@
       <c r="D5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1" t="s">
         <v>177</v>
       </c>
@@ -2052,9 +2028,12 @@
       <c r="M5" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="N5" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
       <c r="B6" s="25" t="s">
         <v>186</v>
       </c>
@@ -2064,12 +2043,12 @@
       <c r="D6" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="1" t="s">
         <v>178</v>
       </c>
@@ -2079,12 +2058,9 @@
       <c r="K6" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
       <c r="B7" s="25" t="s">
         <v>187</v>
       </c>
@@ -2094,12 +2070,12 @@
       <c r="D7" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="1" t="s">
         <v>179</v>
       </c>
@@ -2109,251 +2085,211 @@
       <c r="K7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="M8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="M9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="M10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="M11" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="4"/>
-      <c r="M12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="4"/>
-      <c r="M13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K14" s="4"/>
-      <c r="M14" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K15" s="4"/>
-      <c r="M15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="M16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="M17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="32"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K18" s="4"/>
-      <c r="M18" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="M19" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K20" s="8"/>
-      <c r="M20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
@@ -2370,8 +2306,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2383,7 +2317,7 @@
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2414,12 +2348,12 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
@@ -2440,7 +2374,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -2452,12 +2386,12 @@
       <c r="D5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
         <v>108</v>
@@ -2474,7 +2408,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="21" t="s">
         <v>164</v>
       </c>
@@ -2484,12 +2418,12 @@
       <c r="D6" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
         <v>108</v>
@@ -2504,7 +2438,7 @@
       <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="8" t="s">
         <v>163</v>
       </c>
@@ -2514,12 +2448,12 @@
       <c r="D7" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2528,7 +2462,7 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="21" t="s">
         <v>94</v>
       </c>
@@ -2538,12 +2472,12 @@
       <c r="D8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
         <v>109</v>
@@ -2558,7 +2492,7 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="21" t="s">
         <v>95</v>
       </c>
@@ -2568,12 +2502,12 @@
       <c r="D9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
         <v>108</v>
@@ -2588,7 +2522,7 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="21" t="s">
         <v>96</v>
       </c>
@@ -2598,12 +2532,12 @@
       <c r="D10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
         <v>109</v>
@@ -2618,7 +2552,7 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="14" t="s">
         <v>112</v>
       </c>
@@ -2628,12 +2562,12 @@
       <c r="D11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
@@ -2642,7 +2576,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="14" t="s">
         <v>114</v>
       </c>
@@ -2652,12 +2586,12 @@
       <c r="D12" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
@@ -2742,12 +2676,12 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
@@ -2768,7 +2702,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="31" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2780,12 +2714,12 @@
       <c r="D5" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
         <v>108</v>
@@ -2802,7 +2736,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="11" t="s">
         <v>135</v>
       </c>
@@ -2812,12 +2746,12 @@
       <c r="D6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
         <v>108</v>
@@ -2828,7 +2762,7 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="11" t="s">
         <v>136</v>
       </c>
@@ -2838,12 +2772,12 @@
       <c r="D7" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
         <v>109</v>
@@ -2854,7 +2788,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="11" t="s">
         <v>137</v>
       </c>
@@ -2864,12 +2798,12 @@
       <c r="D8" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
         <v>109</v>
@@ -2880,7 +2814,7 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="23" t="s">
         <v>145</v>
       </c>
@@ -2890,12 +2824,12 @@
       <c r="D9" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
         <v>109</v>
@@ -2906,7 +2840,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="11" t="s">
         <v>138</v>
       </c>
@@ -2916,12 +2850,12 @@
       <c r="D10" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
         <v>109</v>
@@ -2932,7 +2866,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="11" t="s">
         <v>139</v>
       </c>
@@ -2942,12 +2876,12 @@
       <c r="D11" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
         <v>109</v>
@@ -2958,7 +2892,7 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="23" t="s">
         <v>146</v>
       </c>
@@ -2968,12 +2902,12 @@
       <c r="D12" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
         <v>109</v>
@@ -2984,7 +2918,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="11" t="s">
         <v>140</v>
       </c>
@@ -2994,12 +2928,12 @@
       <c r="D13" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="13"/>
       <c r="J13" s="18" t="s">
         <v>109</v>
@@ -3010,7 +2944,7 @@
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="11" t="s">
         <v>141</v>
       </c>
@@ -3020,12 +2954,12 @@
       <c r="D14" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="13"/>
       <c r="J14" s="18" t="s">
         <v>109</v>
@@ -3052,11 +2986,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -3064,6 +2993,11 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -277,512 +277,512 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>옥은호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강일구 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">초안작성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규프로젝트_애니메이션 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신명수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기획 담당자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 대기 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스폰 직후 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일반 공격 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.07.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림캐쳐 내용 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강동민 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 대기모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 죽는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Attack_002</t>
+  </si>
+  <si>
+    <t>MM01_Attack_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 준비 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 중인 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전방으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 전조 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 공격 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 공격을 통일해서 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대기상태에서 출력하는 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 루프여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">윤영조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_ATTACK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">측면으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루트 모션으로 인한 8방향 제작 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전방 이동보다 느리게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매우 느리게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">후방으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타 공격 앞으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1타 공격 이동 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3타 공격 앞으로 이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터에게 피격 시 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 해제 시 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 이동 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 추적할 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Attack1_003</t>
+  </si>
+  <si>
+    <t>DM01_Attack2_003</t>
+  </si>
+  <si>
+    <t>스킬2 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성됬을 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동 전체를 프로그래밍 상에서 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MM01_Move_001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 이후 후방으로 이동 하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동하는  모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 전방 이동 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 후방 이동 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 몬스터의 리깅 데이터의 경우 &lt; DM01_Rig &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1 출력 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착지 후 보스를 공격 할 수 있는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 착지 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 진행 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 중인 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터가 무기(토끼 인형)에 올라타는 형태 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Attack_002</t>
+  </si>
+  <si>
+    <t>BOSS_Attack_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전조 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진행 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">종료 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">PlayerCharacter 애니메이션 리스트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옥은호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.07.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강일구 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">초안작성 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신규프로젝트_애니메이션 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델링 담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신명수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김재령</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기획 담당자 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맥 대기 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스폰 직후 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">일반 공격 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.07.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림캐쳐 내용 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강동민 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 대기모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 피격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 죽는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Attack_002</t>
-  </si>
-  <si>
-    <t>MM01_Attack_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 준비 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 중인 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전방으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 전조 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 공격 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 공격을 통일해서 사용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">대기상태에서 출력하는 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 루프여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">윤영조 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_ATTACK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">측면으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">루트 모션으로 인한 8방향 제작 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">전방 이동보다 느리게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">매우 느리게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">후방으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2타 공격 앞으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1타 공격 이동 없음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3타 공격 앞으로 이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">몬스터에게 피격 시 출력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변신 해제 시 출력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 이동 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저를 추적할 때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 후 공격하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 후 공격하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack1_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack1_003</t>
-  </si>
-  <si>
-    <t>DM01_Attack2_003</t>
-  </si>
-  <si>
-    <t>스킬2 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 준비 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성됬을 때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최다빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이동 전체를 프로그래밍 상에서 구현 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MM01_Move_001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 이후 후방으로 이동 하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 이동하는  모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맥 전방 이동 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맥 후방 이동 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 몬스터의 리깅 데이터의 경우 &lt; DM01_Rig &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴1 출력 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착지 후 보스를 공격 할 수 있는 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 착지 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 진행 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 중인 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 캐릭터가 무기(토끼 인형)에 올라타는 형태 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Attack_002</t>
-  </si>
-  <si>
-    <t>BOSS_Attack_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전조 동작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진행 동작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">종료 동작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획 담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강일구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,9 +1062,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1081,6 +1078,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1386,18 +1386,18 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
@@ -1405,25 +1405,25 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1460,7 +1460,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1476,12 +1476,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1492,14 +1492,14 @@
         <v>11</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1511,24 +1511,24 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1538,10 +1538,10 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>51</v>
@@ -1549,7 +1549,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1561,12 +1561,12 @@
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="E7" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>51</v>
@@ -1574,9 +1574,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1584,22 +1584,22 @@
       <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="E8" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1609,22 +1609,22 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1634,22 +1634,22 @@
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="E10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1659,22 +1659,22 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1684,22 +1684,22 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1709,22 +1709,22 @@
       <c r="D13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="E13" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1734,22 +1734,22 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1761,12 +1761,12 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="E15" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>51</v>
@@ -1776,9 +1776,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -1786,12 +1786,12 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="E16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>51</v>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1811,12 +1811,12 @@
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="E17" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>51</v>
@@ -1826,7 +1826,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1836,12 +1836,12 @@
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="E18" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>51</v>
@@ -1849,7 +1849,7 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1861,12 +1861,12 @@
       <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -1876,7 +1876,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1886,12 +1886,12 @@
       <c r="D20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="E20" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>55</v>
@@ -1902,16 +1902,21 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
@@ -1928,11 +1933,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1977,12 +1977,12 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
@@ -1993,312 +1993,312 @@
         <v>11</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="1" t="s">
+      <c r="E6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="J6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="J7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2317,7 +2317,7 @@
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2332,7 +2332,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2348,17 +2348,17 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>50</v>
@@ -2367,89 +2367,89 @@
         <v>11</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="E5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="38"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>165</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>166</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -2462,108 +2462,108 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -2571,23 +2571,23 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="E12" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -2595,7 +2595,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="14"/>
       <c r="N12" s="19"/>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2660,7 +2660,7 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2676,17 +2676,17 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>50</v>
@@ -2695,297 +2695,302 @@
         <v>11</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>83</v>
+      <c r="A5" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+        <v>155</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+        <v>156</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+        <v>146</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+        <v>153</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+        <v>154</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="13"/>
       <c r="J13" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="13"/>
       <c r="J14" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L14" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -2993,11 +2998,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8F638-3593-467C-92E4-B3C4A0CB9C91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -28,26 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="193">
-  <si>
-    <t>PC_IDLE_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Move_003</t>
-  </si>
-  <si>
-    <t>PC_Move_004</t>
-  </si>
-  <si>
-    <t>PC_Move_005</t>
-  </si>
-  <si>
-    <t>PC_Move_006</t>
-  </si>
-  <si>
-    <t>PC_ATTACK_003</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="199">
   <si>
     <t>기본 공격 2번</t>
   </si>
@@ -71,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">PC_IDLE_001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 대기1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">정면 이동 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,24 +117,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Move_007</t>
-  </si>
-  <si>
     <t>SA키 입력 받음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Move_008</t>
-  </si>
-  <si>
     <t xml:space="preserve">DS키 입력 받음 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_ATTACK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 공격 1번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">피격 애니메이션 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Change_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">PC_Change_002 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">변신 해제 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,20 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MM01_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Attack_002</t>
-  </si>
-  <si>
-    <t>MM01_Attack_003</t>
-  </si>
-  <si>
     <t xml:space="preserve">공격 준비 모션 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,18 +401,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MM01_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MM01_die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,14 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_ATTACK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">측면으로 이동하는 애니메이션 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,34 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DM01_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack1_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Attack2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,12 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DM01_Attack1_003</t>
-  </si>
-  <si>
-    <t>DM01_Attack2_003</t>
-  </si>
-  <si>
     <t>스킬2 공격시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,14 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MM01_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MM01_Move_001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DM01_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">공격이 끝난 종료 모션 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -752,16 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOSS_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Attack_002</t>
-  </si>
-  <si>
-    <t>BOSS_Attack_003</t>
-  </si>
-  <si>
     <t xml:space="preserve">전조 동작 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -783,13 +649,185 @@
   </si>
   <si>
     <t xml:space="preserve">PlayerCharacter 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Ani_IDLE_001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_IDLE_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Move_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_ATTACK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_ATTACK_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_ATTACK_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_Change_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Ani_Change_002 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ani_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사망 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사망 시 추력하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 체력이 0이 될 경우 출력하는 애니 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 단위는 초 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Ani_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Ani_Attack_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Ani_Attack_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Ani_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MM01_Ani_Move_001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Ani_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Ani_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Ani_Attack_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM0_Ani1_Attack_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Ani_Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM0_Ani1_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -974,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,6 +1103,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,9 +1124,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1091,6 +1132,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1372,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
@@ -1386,44 +1436,44 @@
   <sheetData>
     <row r="2" spans="2:5" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1440,18 +1490,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C33"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.375" customWidth="1"/>
@@ -1460,470 +1511,496 @@
   <sheetData>
     <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="N4" s="28" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>60</v>
+      <c r="A5" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+        <v>9</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>59</v>
+      <c r="A7" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+        <v>11</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+        <v>17</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+        <v>23</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>61</v>
+      <c r="A15" s="32" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="K21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>75</v>
+      <c r="I22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E20:H20"/>
+  <mergeCells count="22">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E14:H14"/>
@@ -1933,6 +2010,11 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1941,16 +2023,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
@@ -1961,341 +2043,337 @@
   <sheetData>
     <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="N4" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="25" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+        <v>141</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="25" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+        <v>141</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K20" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A5:A20"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -2306,6 +2384,12 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,16 +2397,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.25" bestFit="1" customWidth="1"/>
@@ -2332,270 +2416,272 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" s="7" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>77</v>
+      <c r="A5" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+        <v>66</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="21" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+        <v>81</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+        <v>131</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="21" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+        <v>67</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="21" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+        <v>67</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="21" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+        <v>67</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="14" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+        <v>94</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+        <v>96</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L12" s="14"/>
       <c r="N12" s="19"/>
@@ -2617,7 +2703,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2640,11 +2726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2660,337 +2746,332 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" s="22" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>82</v>
+      <c r="A5" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+        <v>76</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L5" s="11"/>
       <c r="N5" s="10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="11" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+        <v>77</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="11" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+        <v>124</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="11" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="23" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="11" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+        <v>115</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="11" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="23" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+        <v>123</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="11" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+        <v>112</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="13"/>
       <c r="J13" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="11" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="13"/>
       <c r="J14" s="18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="L14" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -2998,6 +3079,11 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8F638-3593-467C-92E4-B3C4A0CB9C91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -18,6 +17,7 @@
     <sheet name="Boss" sheetId="2" r:id="rId3"/>
     <sheet name="Monster1" sheetId="4" r:id="rId4"/>
     <sheet name="Monster2" sheetId="5" r:id="rId5"/>
+    <sheet name="Monster3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="224">
   <si>
     <t>기본 공격 2번</t>
   </si>
@@ -821,13 +821,113 @@
   </si>
   <si>
     <t>패턴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack1_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 대기모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 낙하후 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 이동 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 죽는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Spawn_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 스폰 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Spawn_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1012,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,6 +1209,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,6 +1236,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1132,15 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1422,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
@@ -1490,7 +1599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -1527,12 +1636,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1659,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1562,10 +1671,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1579,7 +1688,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="2" t="s">
         <v>157</v>
       </c>
@@ -1589,10 +1698,10 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>38</v>
@@ -1600,7 +1709,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1612,12 +1721,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>38</v>
@@ -1625,7 +1734,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="3" t="s">
         <v>159</v>
       </c>
@@ -1635,12 +1744,12 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>38</v>
@@ -1650,7 +1759,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="3" t="s">
         <v>160</v>
       </c>
@@ -1660,12 +1769,12 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>38</v>
@@ -1675,7 +1784,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="3" t="s">
         <v>161</v>
       </c>
@@ -1685,12 +1794,12 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>38</v>
@@ -1700,7 +1809,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="3" t="s">
         <v>162</v>
       </c>
@@ -1710,12 +1819,12 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>38</v>
@@ -1725,7 +1834,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="3" t="s">
         <v>163</v>
       </c>
@@ -1735,12 +1844,12 @@
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>38</v>
@@ -1750,7 +1859,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3" t="s">
         <v>164</v>
       </c>
@@ -1760,12 +1869,12 @@
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>38</v>
@@ -1775,7 +1884,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="3" t="s">
         <v>165</v>
       </c>
@@ -1785,12 +1894,12 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>38</v>
@@ -1800,7 +1909,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1812,12 +1921,12 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>38</v>
@@ -1827,7 +1936,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="3" t="s">
         <v>167</v>
       </c>
@@ -1837,12 +1946,12 @@
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>38</v>
@@ -1852,7 +1961,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3" t="s">
         <v>168</v>
       </c>
@@ -1862,12 +1971,12 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>38</v>
@@ -1877,7 +1986,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>169</v>
       </c>
@@ -1887,12 +1996,12 @@
       <c r="D18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
         <v>38</v>
@@ -1900,7 +2009,7 @@
       <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>172</v>
       </c>
@@ -1910,12 +2019,12 @@
       <c r="D19" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="1">
         <v>1</v>
       </c>
@@ -1925,7 +2034,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1937,12 +2046,12 @@
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>38</v>
@@ -1952,7 +2061,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="3" t="s">
         <v>171</v>
       </c>
@@ -1962,12 +2071,12 @@
       <c r="D21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
         <v>41</v>
@@ -1993,6 +2102,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A7:A14"/>
@@ -2009,12 +2124,6 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,10 +2132,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2059,12 +2168,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2094,12 +2203,12 @@
       <c r="D5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="1" t="s">
         <v>142</v>
       </c>
@@ -2127,12 +2236,12 @@
       <c r="D6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="1" t="s">
         <v>143</v>
       </c>
@@ -2154,12 +2263,12 @@
       <c r="D7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="1" t="s">
         <v>144</v>
       </c>
@@ -2171,14 +2280,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>50</v>
@@ -2186,14 +2295,14 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>50</v>
@@ -2201,14 +2310,14 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -2216,14 +2325,14 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>50</v>
@@ -2231,14 +2340,14 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>50</v>
@@ -2246,14 +2355,14 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>50</v>
@@ -2261,14 +2370,14 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>50</v>
@@ -2276,14 +2385,14 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>50</v>
@@ -2291,14 +2400,14 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>50</v>
@@ -2306,14 +2415,14 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>50</v>
@@ -2321,14 +2430,14 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -2336,14 +2445,14 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>50</v>
@@ -2351,14 +2460,14 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>50</v>
@@ -2372,11 +2481,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2384,12 +2494,11 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2397,11 +2506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2432,12 +2541,12 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2458,7 +2567,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -2470,12 +2579,12 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
         <v>89</v>
@@ -2492,7 +2601,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="21" t="s">
         <v>181</v>
       </c>
@@ -2502,12 +2611,12 @@
       <c r="D6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
         <v>89</v>
@@ -2522,7 +2631,7 @@
       <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="8" t="s">
         <v>182</v>
       </c>
@@ -2532,12 +2641,12 @@
       <c r="D7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="18" t="s">
@@ -2548,7 +2657,7 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="21" t="s">
         <v>183</v>
       </c>
@@ -2558,12 +2667,12 @@
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
         <v>90</v>
@@ -2578,7 +2687,7 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="21" t="s">
         <v>184</v>
       </c>
@@ -2588,12 +2697,12 @@
       <c r="D9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
         <v>89</v>
@@ -2608,7 +2717,7 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="21" t="s">
         <v>185</v>
       </c>
@@ -2618,12 +2727,12 @@
       <c r="D10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
         <v>90</v>
@@ -2638,7 +2747,7 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>186</v>
       </c>
@@ -2648,12 +2757,12 @@
       <c r="D11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
@@ -2662,7 +2771,7 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="14" t="s">
         <v>187</v>
       </c>
@@ -2672,12 +2781,12 @@
       <c r="D12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
@@ -2726,11 +2835,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2762,12 +2871,12 @@
       <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="12" t="s">
         <v>36</v>
       </c>
@@ -2788,7 +2897,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2800,12 +2909,12 @@
       <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
         <v>89</v>
@@ -2822,7 +2931,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="11" t="s">
         <v>189</v>
       </c>
@@ -2832,12 +2941,12 @@
       <c r="D6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
         <v>89</v>
@@ -2848,7 +2957,7 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="11" t="s">
         <v>190</v>
       </c>
@@ -2858,12 +2967,12 @@
       <c r="D7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
         <v>90</v>
@@ -2874,7 +2983,7 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="11" t="s">
         <v>191</v>
       </c>
@@ -2884,12 +2993,12 @@
       <c r="D8" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
         <v>90</v>
@@ -2900,7 +3009,7 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="23" t="s">
         <v>192</v>
       </c>
@@ -2910,12 +3019,12 @@
       <c r="D9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
         <v>90</v>
@@ -2926,7 +3035,7 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="11" t="s">
         <v>193</v>
       </c>
@@ -2936,12 +3045,12 @@
       <c r="D10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
         <v>90</v>
@@ -2952,7 +3061,7 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="11" t="s">
         <v>194</v>
       </c>
@@ -2962,12 +3071,12 @@
       <c r="D11" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
         <v>90</v>
@@ -2978,7 +3087,7 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="23" t="s">
         <v>195</v>
       </c>
@@ -2988,12 +3097,12 @@
       <c r="D12" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
         <v>90</v>
@@ -3004,7 +3113,7 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="11" t="s">
         <v>196</v>
       </c>
@@ -3014,12 +3123,12 @@
       <c r="D13" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
       <c r="I13" s="13"/>
       <c r="J13" s="18" t="s">
         <v>90</v>
@@ -3030,7 +3139,7 @@
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="11" t="s">
         <v>197</v>
       </c>
@@ -3040,12 +3149,12 @@
       <c r="D14" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
       <c r="I14" s="13"/>
       <c r="J14" s="18" t="s">
         <v>90</v>
@@ -3055,35 +3164,452 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="31"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A5:A14"/>
+  <mergeCells count="13">
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="N5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8F638-3593-467C-92E4-B3C4A0CB9C91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -652,74 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">PC_Ani_IDLE_001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_IDLE_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Move_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_ATTACK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_ATTACK_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_ATTACK_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_Change_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PC_Ani_Change_002 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ani_die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">사망 애니메이션 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,98 +667,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOSS_Ani_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Ani_Attack_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Ani_Attack_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Ani_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MM01_Ani_Move_001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Ani_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Ani_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Ani_Attack_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM0_Ani1_Attack_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Ani_Hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM0_Ani1_die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack1_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack1_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack2_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>패턴1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Anim_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Anim_Attack_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Anim_Attack_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_ATTACK_002</t>
+  </si>
+  <si>
+    <t>PC_Anim_ATTACK_003</t>
+  </si>
+  <si>
+    <t>PC_Anim_Hit_001</t>
+  </si>
+  <si>
+    <t>PC_Anim_die</t>
+  </si>
+  <si>
+    <t>PC_Anim_Change_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Anim_Change_002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Anim_IDLE_001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_IDLE_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_ATTACK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Anim_Idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM01_Anim_Move_001 </t>
+  </si>
+  <si>
+    <t>MM01_Anim_Move_002</t>
+  </si>
+  <si>
+    <t>MM01_Anim_Attack_001</t>
+  </si>
+  <si>
+    <t>MM01_Anim_Attack_002</t>
+  </si>
+  <si>
+    <t>MM0_Anim1_Attack_003</t>
+  </si>
+  <si>
+    <t>MM01_Anim_Hit</t>
+  </si>
+  <si>
+    <t>MM0_Anim_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Anim_Idle</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Move_001</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Attack1_001</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Attack1_002</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Attack1_003</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Attack2_001</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Attack2_002</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Attack2_003</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Hit_001</t>
+  </si>
+  <si>
+    <t>DM01_Anim_Die_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1103,25 +1079,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1132,15 +1117,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1422,10 +1398,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D34" sqref="C34:D37"/>
     </sheetView>
   </sheetViews>
@@ -1490,11 +1466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1527,12 +1503,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1550,11 +1526,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1562,10 +1538,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1579,9 +1555,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1589,10 +1565,10 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>38</v>
@@ -1600,11 +1576,11 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1612,12 +1588,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>38</v>
@@ -1625,9 +1601,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1635,12 +1611,12 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>38</v>
@@ -1650,9 +1626,9 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1660,12 +1636,12 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>38</v>
@@ -1675,9 +1651,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1685,12 +1661,12 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>38</v>
@@ -1700,9 +1676,9 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1710,12 +1686,12 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>38</v>
@@ -1725,9 +1701,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="3" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -1735,12 +1711,12 @@
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>38</v>
@@ -1750,9 +1726,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1760,12 +1736,12 @@
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>38</v>
@@ -1775,9 +1751,9 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -1785,12 +1761,12 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>38</v>
@@ -1800,11 +1776,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
@@ -1812,12 +1788,12 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>38</v>
@@ -1827,9 +1803,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -1837,12 +1813,12 @@
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>38</v>
@@ -1852,9 +1828,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
@@ -1862,12 +1838,12 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>38</v>
@@ -1877,9 +1853,9 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -1887,12 +1863,12 @@
       <c r="D18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18" t="s">
         <v>38</v>
@@ -1900,22 +1876,22 @@
       <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+        <v>157</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="1">
         <v>1</v>
       </c>
@@ -1925,11 +1901,11 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>33</v>
@@ -1937,12 +1913,12 @@
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>38</v>
@@ -1952,9 +1928,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -1962,12 +1938,12 @@
       <c r="D21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
         <v>41</v>
@@ -1978,7 +1954,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1993,6 +1969,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A7:A14"/>
@@ -2009,12 +1991,6 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +1999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2059,12 +2035,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2082,11 +2058,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>198</v>
+      <c r="A5" s="39" t="s">
+        <v>160</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>140</v>
@@ -2094,12 +2070,12 @@
       <c r="D5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="1" t="s">
         <v>142</v>
       </c>
@@ -2117,9 +2093,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="25" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>147</v>
@@ -2127,12 +2103,12 @@
       <c r="D6" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="1" t="s">
         <v>143</v>
       </c>
@@ -2144,9 +2120,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="25" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>146</v>
@@ -2154,12 +2130,12 @@
       <c r="D7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="1" t="s">
         <v>144</v>
       </c>
@@ -2171,14 +2147,14 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>50</v>
@@ -2186,14 +2162,14 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>50</v>
@@ -2201,14 +2177,14 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -2216,14 +2192,14 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>50</v>
@@ -2231,14 +2207,14 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>50</v>
@@ -2246,14 +2222,14 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>50</v>
@@ -2261,14 +2237,14 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>50</v>
@@ -2276,14 +2252,14 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>50</v>
@@ -2291,14 +2267,14 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>50</v>
@@ -2306,14 +2282,14 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>50</v>
@@ -2321,14 +2297,14 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -2336,14 +2312,14 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>50</v>
@@ -2351,14 +2327,14 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>50</v>
@@ -2372,11 +2348,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2384,12 +2361,11 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2397,11 +2373,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2432,12 +2408,12 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2458,11 +2434,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>65</v>
@@ -2470,12 +2446,12 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="1"/>
       <c r="J5" s="16" t="s">
         <v>89</v>
@@ -2492,9 +2468,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>136</v>
@@ -2502,12 +2478,12 @@
       <c r="D6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16" t="s">
         <v>89</v>
@@ -2522,9 +2498,9 @@
       <c r="O6" s="27"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>137</v>
@@ -2532,12 +2508,12 @@
       <c r="D7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="18" t="s">
@@ -2548,9 +2524,9 @@
       <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>83</v>
@@ -2558,12 +2534,12 @@
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16" t="s">
         <v>90</v>
@@ -2578,9 +2554,9 @@
       <c r="O8" s="19"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>85</v>
@@ -2588,12 +2564,12 @@
       <c r="D9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16" t="s">
         <v>89</v>
@@ -2608,9 +2584,9 @@
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>84</v>
@@ -2618,12 +2594,12 @@
       <c r="D10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
         <v>90</v>
@@ -2638,9 +2614,9 @@
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>93</v>
@@ -2648,12 +2624,12 @@
       <c r="D11" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
@@ -2662,9 +2638,9 @@
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>95</v>
@@ -2672,12 +2648,12 @@
       <c r="D12" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
@@ -2726,11 +2702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2762,12 +2738,12 @@
       <c r="D4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="12" t="s">
         <v>36</v>
       </c>
@@ -2788,11 +2764,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>73</v>
@@ -2800,12 +2776,12 @@
       <c r="D5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="13"/>
       <c r="J5" s="18" t="s">
         <v>89</v>
@@ -2822,9 +2798,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>107</v>
@@ -2832,12 +2808,12 @@
       <c r="D6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="13"/>
       <c r="J6" s="18" t="s">
         <v>89</v>
@@ -2848,9 +2824,9 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>116</v>
@@ -2858,12 +2834,12 @@
       <c r="D7" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="13"/>
       <c r="J7" s="18" t="s">
         <v>90</v>
@@ -2874,9 +2850,9 @@
       <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>117</v>
@@ -2884,12 +2860,12 @@
       <c r="D8" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="13"/>
       <c r="J8" s="18" t="s">
         <v>90</v>
@@ -2900,9 +2876,9 @@
       <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>118</v>
@@ -2910,12 +2886,12 @@
       <c r="D9" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18" t="s">
         <v>90</v>
@@ -2926,9 +2902,9 @@
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>119</v>
@@ -2936,12 +2912,12 @@
       <c r="D10" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="13"/>
       <c r="J10" s="18" t="s">
         <v>90</v>
@@ -2952,9 +2928,9 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>120</v>
@@ -2962,12 +2938,12 @@
       <c r="D11" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="13"/>
       <c r="J11" s="18" t="s">
         <v>90</v>
@@ -2978,9 +2954,9 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>121</v>
@@ -2988,12 +2964,12 @@
       <c r="D12" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18" t="s">
         <v>90</v>
@@ -3004,9 +2980,9 @@
       <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>74</v>
@@ -3014,12 +2990,12 @@
       <c r="D13" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="13"/>
       <c r="J13" s="18" t="s">
         <v>90</v>
@@ -3030,9 +3006,9 @@
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>75</v>
@@ -3040,12 +3016,12 @@
       <c r="D14" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="13"/>
       <c r="J14" s="18" t="s">
         <v>90</v>
@@ -3072,6 +3048,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -3079,11 +3060,6 @@
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Boss" sheetId="2" r:id="rId3"/>
     <sheet name="Monster1" sheetId="4" r:id="rId4"/>
     <sheet name="Monster2" sheetId="5" r:id="rId5"/>
+    <sheet name="Monster3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="277">
   <si>
     <t>기본 공격 2번</t>
   </si>
@@ -300,19 +301,481 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>19.07.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림캐쳐 내용 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 대기모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 준비 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 중인 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전방으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 전조 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 공격 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 공격을 통일해서 사용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대기상태에서 출력하는 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 루프여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">윤영조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">측면으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">루트 모션으로 인한 8방향 제작 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전방 이동보다 느리게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">매우 느리게 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">후방으로 이동하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2타 공격 앞으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1타 공격 이동 없음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3타 공격 앞으로 이동 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터에게 피격 시 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변신 해제 시 출력 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 추적할 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성됬을 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이동 전체를 프로그래밍 상에서 구현 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 이후 후방으로 이동 하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방으로 이동하는  모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 전방 이동 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">맥 후방 이동 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 몬스터의 리깅 데이터의 경우 &lt; DM01_Rig &gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1 출력 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착지 후 보스를 공격 할 수 있는 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 착지 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 진행 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 중인 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스 캐릭터가 무기(토끼 인형)에 올라타는 형태 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전조 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진행 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">종료 동작 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강일구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PlayerCharacter 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사망 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사망 시 추력하는 애니메이션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 체력이 0이 될 경우 출력하는 애니 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기본 단위는 초 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Anim_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Anim_Attack_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_Anim_Attack_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_ATTACK_002</t>
+  </si>
+  <si>
+    <t>PC_Anim_ATTACK_003</t>
+  </si>
+  <si>
+    <t>PC_Anim_Hit_001</t>
+  </si>
+  <si>
+    <t>PC_Anim_die</t>
+  </si>
+  <si>
+    <t>PC_Anim_Change_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Anim_Change_002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC_Anim_IDLE_001 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_IDLE_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_Move_008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Anim_ATTACK_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM01_Anim_Idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM01_Anim_Move_001 </t>
+  </si>
+  <si>
+    <t>MM01_Anim_Move_002</t>
+  </si>
+  <si>
+    <t>MM01_Anim_Attack_001</t>
+  </si>
+  <si>
+    <t>MM01_Anim_Attack_002</t>
+  </si>
+  <si>
+    <t>MM0_Anim1_Attack_003</t>
+  </si>
+  <si>
+    <t>MM01_Anim_Hit</t>
+  </si>
+  <si>
+    <t>MM0_Anim_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출력 조건 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">내용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 루프여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기획 담당자 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>드림 캐쳐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19.07.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림캐쳐 내용 추가</t>
+    <t>TB01_Ani_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 대기모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재령</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,7 +783,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>드림 캐쳐 대기모션</t>
+    <t>TB01_Ani_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 이동 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 추적할 때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack1_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 낙하후 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 죽는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Spawn_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 스폰 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출력 조건 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강동민 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 이동 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Hit_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,63 +1091,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DM01_Ani_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>드림 캐쳐 죽는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 준비 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 중인 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전방으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 전조 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격 공격 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 공격을 통일해서 사용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">대기상태에서 출력하는 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 루프여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
+    <t>사망 시 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -392,412 +1107,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">윤영조 </t>
+    <t>DM01_Ani_Spawn_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">측면으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">루트 모션으로 인한 8방향 제작 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">전방 이동보다 느리게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">매우 느리게 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">후방으로 이동하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2타 공격 앞으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1타 공격 이동 없음 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3타 공격 앞으로 이동 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">몬스터에게 피격 시 출력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">변신 해제 시 출력 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 이동 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저를 추적할 때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 후 공격하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 후 공격하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Monster 애니메이션 리스트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 준비 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성됬을 때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최다빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이동 전체를 프로그래밍 상에서 구현 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 이후 후방으로 이동 하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방으로 이동하는  모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맥 전방 이동 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">맥 후방 이동 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 몬스터의 리깅 데이터의 경우 &lt; DM01_Rig &gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴1 출력 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>착지 후 보스를 공격 할 수 있는 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 착지 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 진행 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 중인 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보스 캐릭터가 무기(토끼 인형)에 올라타는 형태 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전조 동작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진행 동작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">종료 동작 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획 담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강일구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PlayerCharacter 애니메이션 리스트 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사망 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사망 시 추력하는 애니메이션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 체력이 0이 될 경우 출력하는 애니 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">기본 단위는 초 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Anim_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Anim_Attack_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Anim_Attack_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_ATTACK_002</t>
-  </si>
-  <si>
-    <t>PC_Anim_ATTACK_003</t>
-  </si>
-  <si>
-    <t>PC_Anim_Hit_001</t>
-  </si>
-  <si>
-    <t>PC_Anim_die</t>
-  </si>
-  <si>
-    <t>PC_Anim_Change_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC_Anim_Change_002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC_Anim_IDLE_001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_IDLE_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_Move_008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Anim_ATTACK_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MM01_Anim_Idle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM01_Anim_Move_001 </t>
-  </si>
-  <si>
-    <t>MM01_Anim_Move_002</t>
-  </si>
-  <si>
-    <t>MM01_Anim_Attack_001</t>
-  </si>
-  <si>
-    <t>MM01_Anim_Attack_002</t>
-  </si>
-  <si>
-    <t>MM0_Anim1_Attack_003</t>
-  </si>
-  <si>
-    <t>MM01_Anim_Hit</t>
-  </si>
-  <si>
-    <t>MM0_Anim_die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Anim_Idle</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Move_001</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Attack1_001</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Attack1_002</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Attack1_003</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Attack2_001</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Attack2_002</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Attack2_003</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Hit_001</t>
-  </si>
-  <si>
-    <t>DM01_Anim_Die_001</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,13 +1355,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1046,48 +1396,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1101,9 +1415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1443,13 +1754,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1487,7 +1798,7 @@
   <sheetData>
     <row r="2" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1503,12 +1814,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1521,16 +1832,16 @@
       <c r="M4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="28" t="s">
-        <v>153</v>
+      <c r="N4" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1538,10 +1849,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1550,14 +1861,14 @@
       <c r="M5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>154</v>
+      <c r="N5" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1565,10 +1876,10 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>38</v>
@@ -1576,11 +1887,11 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1588,12 +1899,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="E7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>38</v>
@@ -1601,9 +1912,9 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1611,24 +1922,24 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="E8" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1636,24 +1947,24 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="E9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>99</v>
+      <c r="K9" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1661,24 +1972,24 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="E10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1686,24 +1997,24 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="E11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>99</v>
+      <c r="K11" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -1711,24 +2022,24 @@
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="E12" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="14" t="s">
-        <v>99</v>
+      <c r="K12" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1736,24 +2047,24 @@
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="E13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>99</v>
+      <c r="K13" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -1761,26 +2072,26 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="E14" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="14" t="s">
-        <v>99</v>
+      <c r="K14" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
@@ -1788,12 +2099,12 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>38</v>
@@ -1803,9 +2114,9 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -1813,12 +2124,12 @@
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="E16" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>38</v>
@@ -1828,9 +2139,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
@@ -1838,12 +2149,12 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="E17" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>38</v>
@@ -1853,45 +2164,45 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18" t="s">
+      <c r="E18" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+        <v>138</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="1">
         <v>1</v>
       </c>
@@ -1901,11 +2212,11 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="30" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>33</v>
@@ -1913,12 +2224,12 @@
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>38</v>
@@ -1928,9 +2239,9 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -1938,12 +2249,12 @@
       <c r="D21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="E21" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
         <v>41</v>
@@ -1954,7 +2265,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I22" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1964,17 +2275,11 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A7:A14"/>
@@ -1991,6 +2296,12 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2002,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2035,12 +2346,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2053,108 +2364,108 @@
       <c r="M4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N4" s="28" t="s">
-        <v>153</v>
+      <c r="N4" s="21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>160</v>
+      <c r="A5" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>154</v>
+      <c r="N5" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="25" t="s">
-        <v>163</v>
+      <c r="A7" s="35"/>
+      <c r="B7" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+        <v>122</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>50</v>
@@ -2162,14 +2473,14 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>50</v>
@@ -2177,14 +2488,14 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -2192,14 +2503,14 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>50</v>
@@ -2207,14 +2518,14 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>50</v>
@@ -2222,14 +2533,14 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>50</v>
@@ -2237,14 +2548,14 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>50</v>
@@ -2252,14 +2563,14 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>50</v>
@@ -2267,14 +2578,14 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>50</v>
@@ -2282,14 +2593,14 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>50</v>
@@ -2297,14 +2608,14 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -2312,14 +2623,14 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>50</v>
@@ -2327,14 +2638,14 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>50</v>
@@ -2348,12 +2659,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E12:H12"/>
@@ -2363,9 +2671,12 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2376,7 +2687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2408,17 +2719,17 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>88</v>
+      <c r="J4" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>37</v>
@@ -2434,11 +2745,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>181</v>
+      <c r="B5" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>65</v>
@@ -2446,236 +2757,236 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="E5" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="16" t="s">
+      <c r="J5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="13" t="s">
         <v>50</v>
       </c>
       <c r="L5" s="5"/>
       <c r="N5" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="L6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+        <v>118</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="14" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="8"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="21" t="s">
-        <v>184</v>
+      <c r="A8" s="31"/>
+      <c r="B8" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="D10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16" t="s">
+      <c r="D11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="E12" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="L12" s="11"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="20"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2703,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O18"/>
+  <dimension ref="A2:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2722,344 +3033,761 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="A4" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="22" t="s">
+      <c r="L4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O4" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="N5" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="N5" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="O5" s="10" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="35"/>
+      <c r="B7" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="11"/>
+      <c r="E7" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="32" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="11"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="11"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="23"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" s="11"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="K14" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="35"/>
+      <c r="B15" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15" s="25"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>139</v>
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A5:A14"/>
+  <mergeCells count="13">
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="N5" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="282">
   <si>
     <t>기본 공격 2번</t>
   </si>
@@ -596,18 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOSS_Anim_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Anim_Attack_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS_Anim_Attack_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC_Anim_ATTACK_002</t>
   </si>
   <si>
@@ -1120,6 +1108,36 @@
   </si>
   <si>
     <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴1번 전조 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern1_002</t>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern1_003</t>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴2번 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,8 +1417,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,6 +1433,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1814,12 +1835,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1841,7 +1862,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1849,10 +1870,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1868,7 +1889,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1876,10 +1897,10 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>38</v>
@@ -1891,7 +1912,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1899,12 +1920,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>38</v>
@@ -1914,7 +1935,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -1922,12 +1943,12 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>38</v>
@@ -1939,7 +1960,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1947,12 +1968,12 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>38</v>
@@ -1964,7 +1985,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1972,12 +1993,12 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>38</v>
@@ -1989,7 +2010,7 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1997,12 +2018,12 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>38</v>
@@ -2014,7 +2035,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -2022,12 +2043,12 @@
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>38</v>
@@ -2039,7 +2060,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -2047,12 +2068,12 @@
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>38</v>
@@ -2064,7 +2085,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -2072,12 +2093,12 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>38</v>
@@ -2091,7 +2112,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
@@ -2099,12 +2120,12 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>38</v>
@@ -2116,7 +2137,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>0</v>
@@ -2124,12 +2145,12 @@
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>38</v>
@@ -2141,7 +2162,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
@@ -2149,12 +2170,12 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>38</v>
@@ -2166,7 +2187,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>31</v>
@@ -2174,12 +2195,12 @@
       <c r="D18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
         <v>38</v>
@@ -2189,7 +2210,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>137</v>
@@ -2197,12 +2218,12 @@
       <c r="D19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="1">
         <v>1</v>
       </c>
@@ -2216,7 +2237,7 @@
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>33</v>
@@ -2224,12 +2245,12 @@
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>38</v>
@@ -2241,7 +2262,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -2249,12 +2270,12 @@
       <c r="D21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
         <v>41</v>
@@ -2280,6 +2301,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A7:A14"/>
@@ -2296,12 +2323,6 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2346,12 +2367,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2369,11 +2390,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>141</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>121</v>
@@ -2381,12 +2402,12 @@
       <c r="D5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2404,9 +2425,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="18" t="s">
-        <v>143</v>
+      <c r="A6" s="36"/>
+      <c r="B6" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>128</v>
@@ -2414,12 +2435,12 @@
       <c r="D6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="1" t="s">
         <v>124</v>
       </c>
@@ -2431,9 +2452,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="18" t="s">
-        <v>144</v>
+      <c r="A7" s="36"/>
+      <c r="B7" s="28" t="s">
+        <v>279</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>127</v>
@@ -2441,12 +2462,12 @@
       <c r="D7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="1" t="s">
         <v>125</v>
       </c>
@@ -2459,13 +2480,15 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>50</v>
@@ -2474,13 +2497,17 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>50</v>
@@ -2489,13 +2516,17 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -2507,10 +2538,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>50</v>
@@ -2522,10 +2553,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>50</v>
@@ -2537,10 +2568,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>50</v>
@@ -2552,10 +2583,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>50</v>
@@ -2567,10 +2598,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>50</v>
@@ -2582,10 +2613,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>50</v>
@@ -2597,10 +2628,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>50</v>
@@ -2612,10 +2643,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -2627,10 +2658,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>50</v>
@@ -2642,10 +2673,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>50</v>
@@ -2659,6 +2690,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -2671,12 +2708,6 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2687,7 +2718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2719,12 +2750,12 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2749,7 +2780,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>65</v>
@@ -2757,12 +2788,12 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="1"/>
       <c r="J5" s="13" t="s">
         <v>83</v>
@@ -2781,7 +2812,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>117</v>
@@ -2789,12 +2820,12 @@
       <c r="D6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
         <v>83</v>
@@ -2811,7 +2842,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>118</v>
@@ -2819,12 +2850,12 @@
       <c r="D7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="14" t="s">
@@ -2837,7 +2868,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>77</v>
@@ -2845,12 +2876,12 @@
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
         <v>84</v>
@@ -2867,7 +2898,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>79</v>
@@ -2875,12 +2906,12 @@
       <c r="D9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
         <v>83</v>
@@ -2897,7 +2928,7 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>78</v>
@@ -2905,12 +2936,12 @@
       <c r="D10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
         <v>84</v>
@@ -2927,7 +2958,7 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>86</v>
@@ -2935,12 +2966,12 @@
       <c r="D11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
@@ -2951,7 +2982,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>88</v>
@@ -2959,12 +2990,12 @@
       <c r="D12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
@@ -3038,122 +3069,122 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
       <c r="I4" s="26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>183</v>
+      <c r="A5" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L5" s="25"/>
       <c r="N5" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>41</v>
@@ -3161,51 +3192,51 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+        <v>251</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>41</v>
@@ -3213,51 +3244,51 @@
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>105</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+        <v>259</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>41</v>
@@ -3265,117 +3296,117 @@
       <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+        <v>219</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="E14" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+        <v>271</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L15" s="25"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3385,12 +3416,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E12:H12"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="E4:H4"/>
@@ -3398,6 +3423,12 @@
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3425,335 +3456,335 @@
   <sheetData>
     <row r="2" spans="1:15" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="D4" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="J4" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>179</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L5" s="25"/>
       <c r="N5" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="E6" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="31"/>
       <c r="B10" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+        <v>215</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>41</v>
@@ -3762,12 +3793,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">

--- a/Document/리스트/애니 리스트_강일구.xlsx
+++ b/Document/리스트/애니 리스트_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요 " sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="281">
   <si>
     <t>기본 공격 2번</t>
   </si>
@@ -803,14 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>점프 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 준비 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -819,15 +811,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TB01_Ani_Attack1_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 낙하후 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>최다빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB01_Ani_Attack1_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 모션</t>
+    <t>TB01_Ani_Attack2_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 죽는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB01_Ani_Spawn_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티버 스폰 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출력 조건 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강동민 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 이동 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 전조 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 준비 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack1_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -839,103 +1011,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DM01_Ani_Attack1_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘두르기 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 공격 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 후 공격하는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Attack2_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진 딜레이 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Hit_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 피격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DM01_Ani_Die_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 죽는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB01_Ani_Attack1_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 낙하후 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB01_Ani_Attack2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전 돌진 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB01_Ani_Attack2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전 돌진 공격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최다빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB01_Ani_Attack2_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전 돌진 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB01_Ani_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티버 피격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB01_Ani_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티버 죽는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB01_Ani_Spawn_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티버 스폰 모션</t>
+    <t>DM01_Ani_Spawn_00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -943,10 +1087,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스폰 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -955,71 +1095,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Local_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">출력 조건 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재생 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델링 담당자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최다빈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강동민 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Move_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 이동 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 전조 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 준비 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack1_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격</t>
+    <t>Boss_Anim_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">패턴1번 전조 모션 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern1_002</t>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern1_003</t>
+  </si>
+  <si>
+    <t>Boss_Anim_Pattern2_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴2번 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1027,117 +1129,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DM01_Ani_Attack1_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘두르기 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 공격 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전조 후 공격하는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Attack2_003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진 딜레이 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격이 끝난 종료 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Hit_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 피격 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Die_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림 캐쳐 죽는 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사망 시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DM01_Ani_Spawn_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">애니메이션은 기본 30프레임 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리깅 데이터는 몬스터의 네이밍과 넘버 후에 _Rig를 붙혀서 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_Anim_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">패턴1번 전조 모션 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_Anim_Pattern2_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_Anim_Pattern1_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss_Anim_Pattern1_002</t>
-  </si>
-  <si>
-    <t>Boss_Anim_Pattern1_003</t>
-  </si>
-  <si>
-    <t>Boss_Anim_Pattern2_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패턴2번 실행</t>
+    <t>티버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림 캐쳐 스폰 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1329,7 +1325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,6 +1416,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,9 +1435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1835,12 +1834,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1858,7 +1857,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1870,10 +1869,10 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
         <v>38</v>
@@ -1887,7 +1886,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2" t="s">
         <v>149</v>
       </c>
@@ -1897,10 +1896,10 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>38</v>
@@ -1908,7 +1907,7 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1920,12 +1919,12 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>38</v>
@@ -1933,7 +1932,7 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="3" t="s">
         <v>151</v>
       </c>
@@ -1943,12 +1942,12 @@
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>38</v>
@@ -1958,7 +1957,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="3" t="s">
         <v>152</v>
       </c>
@@ -1968,12 +1967,12 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>38</v>
@@ -1983,7 +1982,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="3" t="s">
         <v>153</v>
       </c>
@@ -1993,12 +1992,12 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>38</v>
@@ -2008,7 +2007,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="3" t="s">
         <v>154</v>
       </c>
@@ -2018,12 +2017,12 @@
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>38</v>
@@ -2033,7 +2032,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="3" t="s">
         <v>155</v>
       </c>
@@ -2043,12 +2042,12 @@
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>38</v>
@@ -2058,7 +2057,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3" t="s">
         <v>156</v>
       </c>
@@ -2068,12 +2067,12 @@
       <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>38</v>
@@ -2083,7 +2082,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="3" t="s">
         <v>157</v>
       </c>
@@ -2093,12 +2092,12 @@
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>38</v>
@@ -2108,7 +2107,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2120,12 +2119,12 @@
       <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>38</v>
@@ -2135,7 +2134,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3" t="s">
         <v>142</v>
       </c>
@@ -2145,12 +2144,12 @@
       <c r="D16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>38</v>
@@ -2160,7 +2159,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="3" t="s">
         <v>143</v>
       </c>
@@ -2170,12 +2169,12 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>38</v>
@@ -2185,7 +2184,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="3" t="s">
         <v>144</v>
       </c>
@@ -2195,12 +2194,12 @@
       <c r="D18" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
         <v>38</v>
@@ -2208,7 +2207,7 @@
       <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="3" t="s">
         <v>145</v>
       </c>
@@ -2218,12 +2217,12 @@
       <c r="D19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1">
         <v>1</v>
       </c>
@@ -2233,7 +2232,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2245,12 +2244,12 @@
       <c r="D20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
         <v>38</v>
@@ -2260,7 +2259,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
@@ -2270,12 +2269,12 @@
       <c r="D21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
         <v>41</v>
@@ -2301,12 +2300,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="A7:A14"/>
@@ -2323,6 +2316,12 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2367,12 +2366,12 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
@@ -2390,11 +2389,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>141</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>121</v>
@@ -2402,12 +2401,12 @@
       <c r="D5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2425,9 +2424,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>128</v>
@@ -2435,12 +2434,12 @@
       <c r="D6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="1" t="s">
         <v>124</v>
       </c>
@@ -2452,9 +2451,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>127</v>
@@ -2462,12 +2461,12 @@
       <c r="D7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="1" t="s">
         <v>125</v>
       </c>
@@ -2481,14 +2480,14 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>50</v>
@@ -2498,16 +2497,16 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>50</v>
@@ -2517,16 +2516,16 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>50</v>
@@ -2538,10 +2537,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
         <v>50</v>
@@ -2553,10 +2552,10 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>50</v>
@@ -2568,10 +2567,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>50</v>
@@ -2583,10 +2582,10 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
         <v>50</v>
@@ -2598,10 +2597,10 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
         <v>50</v>
@@ -2613,10 +2612,10 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
         <v>50</v>
@@ -2628,10 +2627,10 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
         <v>50</v>
@@ -2643,10 +2642,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -2658,10 +2657,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>50</v>
@@ -2673,10 +2672,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="8"/>
       <c r="J20" s="1" t="s">
         <v>50</v>
@@ -2690,12 +2689,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
@@ -2708,6 +2701,12 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2719,7 +2718,7 @@
   <dimension ref="A2:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2750,12 +2749,12 @@
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2776,7 +2775,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -2788,12 +2787,12 @@
       <c r="D5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="1"/>
       <c r="J5" s="13" t="s">
         <v>83</v>
@@ -2810,7 +2809,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="17" t="s">
         <v>160</v>
       </c>
@@ -2820,12 +2819,12 @@
       <c r="D6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
         <v>83</v>
@@ -2840,7 +2839,7 @@
       <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="8" t="s">
         <v>161</v>
       </c>
@@ -2850,12 +2849,12 @@
       <c r="D7" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="14" t="s">
@@ -2866,7 +2865,7 @@
       <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="17" t="s">
         <v>162</v>
       </c>
@@ -2876,12 +2875,12 @@
       <c r="D8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
         <v>84</v>
@@ -2896,7 +2895,7 @@
       <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="17" t="s">
         <v>163</v>
       </c>
@@ -2906,12 +2905,12 @@
       <c r="D9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
         <v>83</v>
@@ -2926,7 +2925,7 @@
       <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="17" t="s">
         <v>164</v>
       </c>
@@ -2936,12 +2935,12 @@
       <c r="D10" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
         <v>84</v>
@@ -2956,7 +2955,7 @@
       <c r="O10" s="15"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="11" t="s">
         <v>165</v>
       </c>
@@ -2966,12 +2965,12 @@
       <c r="D11" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
@@ -2980,7 +2979,7 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="11" t="s">
         <v>166</v>
       </c>
@@ -2990,12 +2989,12 @@
       <c r="D12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
@@ -3048,7 +3047,7 @@
   <dimension ref="A2:O19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3075,19 +3074,19 @@
         <v>170</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="E4" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J4" s="26" t="s">
         <v>176</v>
@@ -3099,92 +3098,92 @@
         <v>177</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>180</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L5" s="25"/>
       <c r="N5" s="10" t="s">
         <v>186</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="25" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="E7" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>41</v>
@@ -3192,25 +3191,25 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>195</v>
@@ -3218,25 +3217,25 @@
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="E9" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>41</v>
@@ -3244,25 +3243,25 @@
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>105</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="E10" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K10" s="27" t="s">
         <v>195</v>
@@ -3270,25 +3269,25 @@
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+        <v>255</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K11" s="27" t="s">
         <v>41</v>
@@ -3296,25 +3295,25 @@
       <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="25" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+        <v>215</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>195</v>
@@ -3322,25 +3321,25 @@
       <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>195</v>
@@ -3348,25 +3347,25 @@
       <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K14" s="27" t="s">
         <v>195</v>
@@ -3374,25 +3373,25 @@
       <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+        <v>267</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K15" s="27" t="s">
         <v>195</v>
@@ -3401,12 +3400,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3437,10 +3436,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O19"/>
+  <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3472,12 +3471,12 @@
       <c r="D4" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="26" t="s">
         <v>175</v>
       </c>
@@ -3498,8 +3497,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>180</v>
+      <c r="A5" s="32" t="s">
+        <v>279</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>181</v>
@@ -3510,12 +3509,12 @@
       <c r="D5" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27" t="s">
         <v>184</v>
@@ -3532,7 +3531,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="25" t="s">
         <v>189</v>
       </c>
@@ -3542,12 +3541,12 @@
       <c r="D6" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27" t="s">
         <v>194</v>
@@ -3558,51 +3557,51 @@
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="29" t="s">
         <v>196</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+        <v>201</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="25" t="s">
-        <v>202</v>
+      <c r="A8" s="33"/>
+      <c r="B8" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+        <v>108</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K8" s="27" t="s">
         <v>185</v>
@@ -3610,25 +3609,25 @@
       <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>208</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+        <v>103</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K9" s="27" t="s">
         <v>185</v>
@@ -3636,33 +3635,33 @@
       <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>185</v>
-      </c>
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="25" t="s">
         <v>213</v>
       </c>
@@ -3672,49 +3671,49 @@
       <c r="D11" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K11" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="25" t="s">
         <v>220</v>
       </c>
@@ -3724,93 +3723,67 @@
       <c r="D13" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="25" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="25"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A5:A15"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
@@ -3818,7 +3791,6 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
